--- a/static/download/2021/RP3_FLT_EFF_2021_Jan_Apr.xlsx
+++ b/static/download/2021/RP3_FLT_EFF_2021_Jan_Apr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
   <si>
     <t>Data source</t>
   </si>
@@ -68,7 +68,7 @@
     <t>KEA (target)</t>
   </si>
   <si>
-    <t>SES AREA</t>
+    <t>SES AREA (RP3)</t>
   </si>
   <si>
     <t>2016</t>
@@ -347,7 +347,7 @@
     <t>Dif.</t>
   </si>
   <si>
-    <t>SES Area</t>
+    <t>SES Area (RP3)</t>
   </si>
   <si>
     <t>Baltic FAB</t>
@@ -464,9 +464,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>UK (Continental)</t>
-  </si>
-  <si>
     <t>Change date</t>
   </si>
   <si>
@@ -474,6 +471,12 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK removed from SES area</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1172,31 +1175,28 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44328.0</v>
+        <v>44351.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1393,11 +1393,11 @@
         <v>42490.0</v>
       </c>
       <c r="D6" s="26">
-        <v>0.0486</v>
+        <v>0.0472</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="26">
-        <v>0.0284</v>
+        <v>0.0274</v>
       </c>
       <c r="G6" s="27"/>
     </row>
@@ -1412,11 +1412,11 @@
         <v>42855.0</v>
       </c>
       <c r="D7" s="26">
-        <v>0.0485</v>
+        <v>0.0469</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26">
-        <v>0.0293</v>
+        <v>0.028</v>
       </c>
       <c r="G7" s="27"/>
     </row>
@@ -1431,11 +1431,11 @@
         <v>43220.0</v>
       </c>
       <c r="D8" s="26">
-        <v>0.0472</v>
+        <v>0.0456</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26">
-        <v>0.0279</v>
+        <v>0.0267</v>
       </c>
       <c r="G8" s="27"/>
     </row>
@@ -1450,11 +1450,11 @@
         <v>43585.0</v>
       </c>
       <c r="D9" s="26">
-        <v>0.0469</v>
+        <v>0.0454</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="G9" s="27"/>
     </row>
@@ -1469,13 +1469,13 @@
         <v>43951.0</v>
       </c>
       <c r="D10" s="26">
-        <v>0.0466</v>
+        <v>0.0451</v>
       </c>
       <c r="E10" s="29">
-        <v>0.043</v>
+        <v>0.0415</v>
       </c>
       <c r="F10" s="26">
-        <v>0.0294</v>
+        <v>0.0283</v>
       </c>
       <c r="G10" s="27">
         <v>0.0253</v>
@@ -1492,13 +1492,13 @@
         <v>44316.0</v>
       </c>
       <c r="D11" s="26">
-        <v>0.0445</v>
+        <v>0.0435</v>
       </c>
       <c r="E11" s="26">
-        <v>0.0404</v>
+        <v>0.0394</v>
       </c>
       <c r="F11" s="26">
-        <v>0.0244</v>
+        <v>0.0241</v>
       </c>
       <c r="G11" s="27">
         <v>0.0247</v>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B2" s="7">
         <f>FLT_EFF_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1662,11 +1662,11 @@
         <v>29</v>
       </c>
       <c r="B6" s="49">
-        <v>0.0471</v>
+        <v>0.0456</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="49">
-        <v>0.0284</v>
+        <v>0.0273</v>
       </c>
       <c r="E6" s="51">
         <v>0.0</v>
@@ -1677,11 +1677,11 @@
         <v>30</v>
       </c>
       <c r="B7" s="53">
-        <v>0.0471</v>
+        <v>0.0456</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53">
-        <v>0.0285</v>
+        <v>0.0274</v>
       </c>
       <c r="E7" s="51">
         <v>0.0</v>
@@ -1692,11 +1692,11 @@
         <v>31</v>
       </c>
       <c r="B8" s="53">
-        <v>0.047</v>
+        <v>0.0455</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="E8" s="51">
         <v>0.0</v>
@@ -1707,11 +1707,11 @@
         <v>32</v>
       </c>
       <c r="B9" s="53">
-        <v>0.0469</v>
+        <v>0.0454</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="E9" s="51">
         <v>0.0</v>
@@ -1722,11 +1722,11 @@
         <v>33</v>
       </c>
       <c r="B10" s="53">
-        <v>0.0469</v>
+        <v>0.0454</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="E10" s="51">
         <v>0.0</v>
@@ -1737,11 +1737,11 @@
         <v>34</v>
       </c>
       <c r="B11" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="54">
-        <v>0.0287</v>
+        <v>0.0276</v>
       </c>
       <c r="E11" s="51">
         <v>0.0</v>
@@ -1752,11 +1752,11 @@
         <v>35</v>
       </c>
       <c r="B12" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54">
-        <v>0.0289</v>
+        <v>0.0278</v>
       </c>
       <c r="E12" s="51">
         <v>0.0</v>
@@ -1767,11 +1767,11 @@
         <v>36</v>
       </c>
       <c r="B13" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="54">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="E13" s="51">
         <v>1.0</v>
@@ -1782,11 +1782,11 @@
         <v>37</v>
       </c>
       <c r="B14" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54">
-        <v>0.0292</v>
+        <v>0.0281</v>
       </c>
       <c r="E14" s="51">
         <v>1.0</v>
@@ -1797,11 +1797,11 @@
         <v>38</v>
       </c>
       <c r="B15" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54">
-        <v>0.0293</v>
+        <v>0.0283</v>
       </c>
       <c r="E15" s="51">
         <v>1.0</v>
@@ -1812,11 +1812,11 @@
         <v>39</v>
       </c>
       <c r="B16" s="55">
-        <v>0.0467</v>
+        <v>0.0452</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54">
-        <v>0.0293</v>
+        <v>0.0283</v>
       </c>
       <c r="E16" s="51">
         <v>1.0</v>
@@ -1827,11 +1827,11 @@
         <v>40</v>
       </c>
       <c r="B17" s="57">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="58">
-        <v>0.0295</v>
+        <v>0.0284</v>
       </c>
       <c r="E17" s="51">
         <v>1.0</v>
@@ -1842,13 +1842,13 @@
         <v>41</v>
       </c>
       <c r="B18" s="49">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C18" s="49">
-        <v>0.0432</v>
+        <v>0.0418</v>
       </c>
       <c r="D18" s="49">
-        <v>0.0295</v>
+        <v>0.0285</v>
       </c>
       <c r="E18" s="51">
         <v>1.0</v>
@@ -1859,13 +1859,13 @@
         <v>42</v>
       </c>
       <c r="B19" s="53">
-        <v>0.0468</v>
+        <v>0.0452</v>
       </c>
       <c r="C19" s="53">
-        <v>0.0432</v>
+        <v>0.0417</v>
       </c>
       <c r="D19" s="53">
-        <v>0.0295</v>
+        <v>0.0285</v>
       </c>
       <c r="E19" s="51">
         <v>1.0</v>
@@ -1876,13 +1876,13 @@
         <v>43</v>
       </c>
       <c r="B20" s="53">
-        <v>0.0467</v>
+        <v>0.0451</v>
       </c>
       <c r="C20" s="53">
-        <v>0.0431</v>
+        <v>0.0416</v>
       </c>
       <c r="D20" s="53">
-        <v>0.0294</v>
+        <v>0.0283</v>
       </c>
       <c r="E20" s="51">
         <v>1.0</v>
@@ -1893,13 +1893,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="53">
-        <v>0.0466</v>
+        <v>0.0451</v>
       </c>
       <c r="C21" s="53">
-        <v>0.043</v>
+        <v>0.0415</v>
       </c>
       <c r="D21" s="53">
-        <v>0.0294</v>
+        <v>0.0283</v>
       </c>
       <c r="E21" s="51">
         <v>1.0</v>
@@ -1910,13 +1910,13 @@
         <v>45</v>
       </c>
       <c r="B22" s="53">
-        <v>0.0464</v>
+        <v>0.0449</v>
       </c>
       <c r="C22" s="59">
-        <v>0.0427</v>
+        <v>0.0413</v>
       </c>
       <c r="D22" s="53">
-        <v>0.0292</v>
+        <v>0.0281</v>
       </c>
       <c r="E22" s="51">
         <v>1.0</v>
@@ -1927,13 +1927,13 @@
         <v>46</v>
       </c>
       <c r="B23" s="53">
-        <v>0.0462</v>
+        <v>0.0448</v>
       </c>
       <c r="C23" s="59">
-        <v>0.0425</v>
+        <v>0.0411</v>
       </c>
       <c r="D23" s="54">
-        <v>0.0287</v>
+        <v>0.0277</v>
       </c>
       <c r="E23" s="51">
         <v>1.0</v>
@@ -1944,13 +1944,13 @@
         <v>47</v>
       </c>
       <c r="B24" s="54">
-        <v>0.0461</v>
+        <v>0.0446</v>
       </c>
       <c r="C24" s="60">
-        <v>0.0423</v>
+        <v>0.0409</v>
       </c>
       <c r="D24" s="54">
-        <v>0.0282</v>
+        <v>0.0272</v>
       </c>
       <c r="E24" s="51">
         <v>1.0</v>
@@ -1961,13 +1961,13 @@
         <v>48</v>
       </c>
       <c r="B25" s="54">
-        <v>0.0459</v>
+        <v>0.0444</v>
       </c>
       <c r="C25" s="60">
-        <v>0.0422</v>
+        <v>0.0407</v>
       </c>
       <c r="D25" s="54">
-        <v>0.0278</v>
+        <v>0.0268</v>
       </c>
       <c r="E25" s="51">
         <v>1.0</v>
@@ -1978,13 +1978,13 @@
         <v>49</v>
       </c>
       <c r="B26" s="53">
-        <v>0.0457</v>
+        <v>0.0442</v>
       </c>
       <c r="C26" s="59">
-        <v>0.0419</v>
+        <v>0.0404</v>
       </c>
       <c r="D26" s="54">
-        <v>0.0272</v>
+        <v>0.0263</v>
       </c>
       <c r="E26" s="51">
         <v>1.0</v>
@@ -1995,13 +1995,13 @@
         <v>50</v>
       </c>
       <c r="B27" s="53">
-        <v>0.0455</v>
+        <v>0.044</v>
       </c>
       <c r="C27" s="59">
-        <v>0.0415</v>
+        <v>0.0401</v>
       </c>
       <c r="D27" s="54">
-        <v>0.0267</v>
+        <v>0.0258</v>
       </c>
       <c r="E27" s="51">
         <v>1.0</v>
@@ -2012,13 +2012,13 @@
         <v>51</v>
       </c>
       <c r="B28" s="55">
-        <v>0.0454</v>
+        <v>0.044</v>
       </c>
       <c r="C28" s="61">
-        <v>0.0413</v>
+        <v>0.04</v>
       </c>
       <c r="D28" s="54">
-        <v>0.0263</v>
+        <v>0.0255</v>
       </c>
       <c r="E28" s="51">
         <v>1.0</v>
@@ -2029,13 +2029,13 @@
         <v>52</v>
       </c>
       <c r="B29" s="57">
-        <v>0.0453</v>
+        <v>0.0438</v>
       </c>
       <c r="C29" s="62">
-        <v>0.0411</v>
+        <v>0.0398</v>
       </c>
       <c r="D29" s="58">
-        <v>0.0258</v>
+        <v>0.0251</v>
       </c>
       <c r="E29" s="51">
         <v>1.0</v>
@@ -2046,13 +2046,13 @@
         <v>53</v>
       </c>
       <c r="B30" s="49">
-        <v>0.0451</v>
+        <v>0.0437</v>
       </c>
       <c r="C30" s="63">
-        <v>0.0408</v>
+        <v>0.0396</v>
       </c>
       <c r="D30" s="49">
-        <v>0.0252</v>
+        <v>0.0247</v>
       </c>
       <c r="E30" s="51">
         <v>1.0</v>
@@ -2063,13 +2063,13 @@
         <v>54</v>
       </c>
       <c r="B31" s="53">
-        <v>0.0448</v>
+        <v>0.0436</v>
       </c>
       <c r="C31" s="59">
-        <v>0.0406</v>
+        <v>0.0394</v>
       </c>
       <c r="D31" s="53">
-        <v>0.0246</v>
+        <v>0.0242</v>
       </c>
       <c r="E31" s="51">
         <v>1.0</v>
@@ -2080,13 +2080,13 @@
         <v>55</v>
       </c>
       <c r="B32" s="53">
-        <v>0.0447</v>
+        <v>0.0436</v>
       </c>
       <c r="C32" s="59">
-        <v>0.0405</v>
+        <v>0.0394</v>
       </c>
       <c r="D32" s="53">
-        <v>0.0243</v>
+        <v>0.0241</v>
       </c>
       <c r="E32" s="51">
         <v>1.0</v>
@@ -2097,13 +2097,13 @@
         <v>56</v>
       </c>
       <c r="B33" s="53">
-        <v>0.0445</v>
+        <v>0.0435</v>
       </c>
       <c r="C33" s="59">
-        <v>0.0404</v>
+        <v>0.0394</v>
       </c>
       <c r="D33" s="53">
-        <v>0.0244</v>
+        <v>0.0241</v>
       </c>
       <c r="E33" s="51"/>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B2" s="7">
         <f>FLT_EFF_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B2" s="7">
         <f>FLT_EFF_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3345,29 +3345,13 @@
       </c>
       <c r="F33" s="89"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="88">
-        <v>0.0601</v>
-      </c>
-      <c r="C34" s="88">
-        <v>0.0542</v>
-      </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88">
-        <v>0.0276</v>
-      </c>
-      <c r="F34" s="89"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F34">
+  <conditionalFormatting sqref="F6:F33">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F34">
+  <conditionalFormatting sqref="F6:F33">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3394,161 +3378,167 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="92" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="91" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="93">
+        <v>44351.0</v>
+      </c>
+      <c r="B2" s="94" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
       <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="D2" s="94" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="96"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="96"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="96"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="96"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="100"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="96"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="96"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="100"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="96"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="100"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="96"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="100"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="96"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="100"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="100"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="96"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="96"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="100"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="96"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="96"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="96"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="100"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="96"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="100"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="96"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="96"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="96"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="100"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="96"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="96"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="100"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="96"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="100"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="99"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="94"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
